--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_24_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91531.55460874055</v>
+        <v>16896478.86690233</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91531.55460874055</v>
+        <v>16896478.86690233</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34292.61752493928</v>
+        <v>4336716.459230019</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34292.61752493928</v>
+        <v>4336716.459230019</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418331020.241321</v>
+        <v>53017012.50611869</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11441.10852959162</v>
+        <v>1187522.688097994</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21992.37849471395</v>
+        <v>2238601.90921856</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32543.64845983627</v>
+        <v>3289681.130339126</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43181.66767002201</v>
+        <v>4322541.994202477</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53752.6804494014</v>
+        <v>5375713.953634294</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64282.95883016603</v>
+        <v>6431931.249998195</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74796.07734007695</v>
+        <v>7532978.446167202</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85230.37430334948</v>
+        <v>8628727.114054698</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96077.38579850605</v>
+        <v>9654485.618268263</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>106278.6376301948</v>
+        <v>10793659.53289382</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116387.9424140611</v>
+        <v>11930258.55027341</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>126486.9001515996</v>
+        <v>13065760.78074224</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>136585.857889138</v>
+        <v>14201263.01121109</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>147306.1726223142</v>
+        <v>15222360.5216415</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159419.7011417267</v>
+        <v>15970620.22848275</v>
       </c>
     </row>
   </sheetData>
